--- a/BalanceSheet/MTCH_bal.xlsx
+++ b/BalanceSheet/MTCH_bal.xlsx
@@ -1658,10 +1658,10 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>5874000.0</v>
+        <v>29000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>31630000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>12000000.0</v>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>11579000.0</v>
+        <v>-207000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>14431000.0</v>
+        <v>-219000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>-234000000.0</v>
